--- a/premise/data/additional_inventories/lci-co-firing-power-plants.xlsx
+++ b/premise/data/additional_inventories/lci-co-firing-power-plants.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/Github/premise/premise/data/additional_inventories/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{954507D3-DA22-6A4A-9E94-8134E653FF9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4D296F1-0EB2-DC4C-95A8-95EDD75F6B77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20960" yWindow="460" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30240" yWindow="460" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Carma CCS" sheetId="1" r:id="rId1"/>
@@ -745,7 +745,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -790,7 +790,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -809,9 +809,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -849,9 +849,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -884,26 +884,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -936,26 +919,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1131,8 +1097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M339"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" zoomScale="115" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D185" sqref="D185"/>
+    <sheetView tabSelected="1" topLeftCell="A152" zoomScale="115" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C182" sqref="C182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1257,6 +1223,10 @@
       <c r="B12">
         <v>1</v>
       </c>
+      <c r="C12" t="str">
+        <f>B4</f>
+        <v>RER</v>
+      </c>
       <c r="D12" t="s">
         <v>55</v>
       </c>
@@ -4732,6 +4702,10 @@
       </c>
       <c r="B181">
         <v>1</v>
+      </c>
+      <c r="C181" t="str">
+        <f>B173</f>
+        <v>RER</v>
       </c>
       <c r="D181" t="s">
         <v>55</v>
